--- a/outputs/raw/Win_Rate_Predictions.xlsx
+++ b/outputs/raw/Win_Rate_Predictions.xlsx
@@ -625,7 +625,7 @@
         <v>36</v>
       </c>
       <c r="T2" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U2" t="n">
         <v>8</v>
@@ -1040,7 +1040,7 @@
         <v>20</v>
       </c>
       <c r="T7" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U7" t="n">
         <v>4</v>
@@ -1123,7 +1123,7 @@
         <v>36</v>
       </c>
       <c r="T8" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U8" t="n">
         <v>8</v>
@@ -1704,7 +1704,7 @@
         <v>20</v>
       </c>
       <c r="T15" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U15" t="n">
         <v>4</v>
@@ -1787,7 +1787,7 @@
         <v>36</v>
       </c>
       <c r="T16" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U16" t="n">
         <v>8</v>
@@ -2866,7 +2866,7 @@
         <v>20</v>
       </c>
       <c r="T29" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U29" t="n">
         <v>4</v>
@@ -2949,7 +2949,7 @@
         <v>36</v>
       </c>
       <c r="T30" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U30" t="n">
         <v>8</v>
@@ -3447,7 +3447,7 @@
         <v>20</v>
       </c>
       <c r="T36" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U36" t="n">
         <v>4</v>
@@ -3530,7 +3530,7 @@
         <v>36</v>
       </c>
       <c r="T37" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U37" t="n">
         <v>8</v>
@@ -4028,7 +4028,7 @@
         <v>20</v>
       </c>
       <c r="T43" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U43" t="n">
         <v>4</v>
@@ -4111,7 +4111,7 @@
         <v>36</v>
       </c>
       <c r="T44" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U44" t="n">
         <v>8</v>
@@ -4692,7 +4692,7 @@
         <v>20</v>
       </c>
       <c r="T51" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U51" t="n">
         <v>4</v>
@@ -4775,7 +4775,7 @@
         <v>36</v>
       </c>
       <c r="T52" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U52" t="n">
         <v>8</v>
@@ -5309,7 +5309,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>89280.81</v>
+        <v>44640.405</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
@@ -5341,7 +5341,7 @@
         <v>5</v>
       </c>
       <c r="O59" t="n">
-        <v>178561.62</v>
+        <v>89280.81</v>
       </c>
       <c r="P59" t="n">
         <v>2</v>
@@ -5356,7 +5356,7 @@
         <v>20</v>
       </c>
       <c r="T59" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U59" t="n">
         <v>4</v>
@@ -5392,7 +5392,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>89280.81</v>
+        <v>44640.405</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
@@ -5424,7 +5424,7 @@
         <v>5</v>
       </c>
       <c r="O60" t="n">
-        <v>178561.62</v>
+        <v>89280.81</v>
       </c>
       <c r="P60" t="n">
         <v>2</v>
@@ -5439,7 +5439,7 @@
         <v>36</v>
       </c>
       <c r="T60" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U60" t="n">
         <v>8</v>
@@ -5507,7 +5507,7 @@
         <v>5</v>
       </c>
       <c r="O61" t="n">
-        <v>178561.62</v>
+        <v>89280.81</v>
       </c>
       <c r="P61" t="n">
         <v>2</v>
@@ -5590,7 +5590,7 @@
         <v>5</v>
       </c>
       <c r="O62" t="n">
-        <v>178561.62</v>
+        <v>89280.81</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
@@ -5673,7 +5673,7 @@
         <v>5</v>
       </c>
       <c r="O63" t="n">
-        <v>178561.62</v>
+        <v>89280.81</v>
       </c>
       <c r="P63" t="n">
         <v>2</v>
@@ -5771,7 +5771,7 @@
         <v>20</v>
       </c>
       <c r="T64" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U64" t="n">
         <v>4</v>
@@ -5854,7 +5854,7 @@
         <v>36</v>
       </c>
       <c r="T65" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U65" t="n">
         <v>8</v>
@@ -6352,7 +6352,7 @@
         <v>20</v>
       </c>
       <c r="T71" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U71" t="n">
         <v>4</v>
@@ -6435,7 +6435,7 @@
         <v>36</v>
       </c>
       <c r="T72" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U72" t="n">
         <v>8</v>
@@ -6933,7 +6933,7 @@
         <v>20</v>
       </c>
       <c r="T78" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U78" t="n">
         <v>4</v>
@@ -7016,7 +7016,7 @@
         <v>36</v>
       </c>
       <c r="T79" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U79" t="n">
         <v>8</v>
@@ -7431,7 +7431,7 @@
         <v>20</v>
       </c>
       <c r="T84" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U84" t="n">
         <v>4</v>
@@ -7514,7 +7514,7 @@
         <v>36</v>
       </c>
       <c r="T85" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U85" t="n">
         <v>8</v>
@@ -7799,7 +7799,7 @@
         <v>2</v>
       </c>
       <c r="E89" t="n">
-        <v>221969.62</v>
+        <v>110984.81</v>
       </c>
       <c r="F89" t="n">
         <v>1</v>
@@ -7831,7 +7831,7 @@
         <v>9</v>
       </c>
       <c r="O89" t="n">
-        <v>522972.74</v>
+        <v>301003.12</v>
       </c>
       <c r="P89" t="n">
         <v>4</v>
@@ -7846,7 +7846,7 @@
         <v>20</v>
       </c>
       <c r="T89" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U89" t="n">
         <v>4</v>
@@ -7882,7 +7882,7 @@
         <v>2</v>
       </c>
       <c r="E90" t="n">
-        <v>221969.62</v>
+        <v>110984.81</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -7914,7 +7914,7 @@
         <v>9</v>
       </c>
       <c r="O90" t="n">
-        <v>522972.74</v>
+        <v>301003.12</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -7929,7 +7929,7 @@
         <v>36</v>
       </c>
       <c r="T90" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U90" t="n">
         <v>8</v>
@@ -7997,7 +7997,7 @@
         <v>9</v>
       </c>
       <c r="O91" t="n">
-        <v>522972.74</v>
+        <v>301003.12</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8080,7 +8080,7 @@
         <v>9</v>
       </c>
       <c r="O92" t="n">
-        <v>522972.74</v>
+        <v>301003.12</v>
       </c>
       <c r="P92" t="n">
         <v>4</v>
@@ -8163,7 +8163,7 @@
         <v>9</v>
       </c>
       <c r="O93" t="n">
-        <v>522972.74</v>
+        <v>301003.12</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8246,7 +8246,7 @@
         <v>9</v>
       </c>
       <c r="O94" t="n">
-        <v>522972.74</v>
+        <v>301003.12</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8329,7 +8329,7 @@
         <v>9</v>
       </c>
       <c r="O95" t="n">
-        <v>522972.74</v>
+        <v>301003.12</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8427,7 +8427,7 @@
         <v>20</v>
       </c>
       <c r="T96" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U96" t="n">
         <v>4</v>
@@ -8510,7 +8510,7 @@
         <v>36</v>
       </c>
       <c r="T97" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U97" t="n">
         <v>8</v>
@@ -8925,7 +8925,7 @@
         <v>36</v>
       </c>
       <c r="T102" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U102" t="n">
         <v>8</v>
@@ -9091,7 +9091,7 @@
         <v>20</v>
       </c>
       <c r="T104" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U104" t="n">
         <v>4</v>
@@ -9174,7 +9174,7 @@
         <v>36</v>
       </c>
       <c r="T105" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U105" t="n">
         <v>8</v>
@@ -9672,7 +9672,7 @@
         <v>20</v>
       </c>
       <c r="T111" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U111" t="n">
         <v>4</v>
@@ -9755,7 +9755,7 @@
         <v>36</v>
       </c>
       <c r="T112" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U112" t="n">
         <v>8</v>
@@ -10170,7 +10170,7 @@
         <v>20</v>
       </c>
       <c r="T117" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U117" t="n">
         <v>4</v>
@@ -10253,7 +10253,7 @@
         <v>36</v>
       </c>
       <c r="T118" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U118" t="n">
         <v>8</v>
@@ -10751,7 +10751,7 @@
         <v>20</v>
       </c>
       <c r="T124" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U124" t="n">
         <v>4</v>
@@ -10834,7 +10834,7 @@
         <v>36</v>
       </c>
       <c r="T125" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U125" t="n">
         <v>8</v>
@@ -11415,7 +11415,7 @@
         <v>36</v>
       </c>
       <c r="T132" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U132" t="n">
         <v>8</v>
@@ -11996,7 +11996,7 @@
         <v>20</v>
       </c>
       <c r="T139" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U139" t="n">
         <v>4</v>
@@ -12079,7 +12079,7 @@
         <v>36</v>
       </c>
       <c r="T140" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U140" t="n">
         <v>8</v>
@@ -12660,7 +12660,7 @@
         <v>20</v>
       </c>
       <c r="T147" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U147" t="n">
         <v>4</v>
@@ -12743,7 +12743,7 @@
         <v>36</v>
       </c>
       <c r="T148" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U148" t="n">
         <v>8</v>
@@ -13324,7 +13324,7 @@
         <v>20</v>
       </c>
       <c r="T155" t="n">
-        <v>311250.43</v>
+        <v>155625.215</v>
       </c>
       <c r="U155" t="n">
         <v>4</v>
@@ -13407,7 +13407,7 @@
         <v>36</v>
       </c>
       <c r="T156" t="n">
-        <v>443538.37</v>
+        <v>287913.155</v>
       </c>
       <c r="U156" t="n">
         <v>8</v>
